--- a/student.xlsx
+++ b/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\StudentManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFC25AC-5F1C-44D2-BC7C-AA797090B2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A5D266-C5C8-4ABE-B84A-DEB2AC6EE445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
   <si>
     <t>Tô Việt Anh</t>
   </si>
@@ -253,17 +253,106 @@
   </si>
   <si>
     <t>hoangthithao.10a2@gmail.com</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sdth</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Quê</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>CMND</t>
+  </si>
+  <si>
+    <t>Chỗ ở hiện tại</t>
+  </si>
+  <si>
+    <t>HSMGHP</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>RegisterStatus</t>
+  </si>
+  <si>
+    <t>RegisterType</t>
+  </si>
+  <si>
+    <t>IdGrade</t>
+  </si>
+  <si>
+    <t>Class01</t>
+  </si>
+  <si>
+    <t>Class02</t>
+  </si>
+  <si>
+    <t>Class03</t>
+  </si>
+  <si>
+    <t>Class04</t>
+  </si>
+  <si>
+    <t>Class05</t>
+  </si>
+  <si>
+    <t>Class06</t>
+  </si>
+  <si>
+    <t>Class07</t>
+  </si>
+  <si>
+    <t>Class08</t>
+  </si>
+  <si>
+    <t>Class09</t>
+  </si>
+  <si>
+    <t>Class10</t>
+  </si>
+  <si>
+    <t>Class11</t>
+  </si>
+  <si>
+    <t>Class12</t>
+  </si>
+  <si>
+    <t>Class13</t>
+  </si>
+  <si>
+    <t>Class14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Time new roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -308,6 +397,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,13 +615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99485173-C7E8-4E33-8869-BA7684B808A7}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -544,156 +636,165 @@
     <col min="13" max="13" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
         <v>102180048</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="2">
         <v>395077731</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E2" s="3">
         <v>36498</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2">
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
         <v>221463524</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="N2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
         <v>102180019</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>367031001</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>36197</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>208256143</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>4000000</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4000000</v>
+      </c>
+      <c r="L3" t="s">
         <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>102180176</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>934866400</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5">
-        <v>36498</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>227654637</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>4000000</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
       </c>
       <c r="M3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
-        <v>102180137</v>
+        <v>102180176</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>972614803</v>
+        <v>934866400</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5">
-        <v>36197</v>
+        <v>36498</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>219821259</v>
+        <v>227654637</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -702,39 +803,42 @@
         <v>4000000</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
-        <v>102180276</v>
+        <v>102180137</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>353090249</v>
+        <v>972614803</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
-        <v>36411</v>
+        <v>36197</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>201781289</v>
+        <v>219821259</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -743,39 +847,42 @@
         <v>4000000</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
-        <v>102180028</v>
+        <v>102180276</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>777963099</v>
+        <v>353090249</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5">
-        <v>36128</v>
+        <v>36411</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>201202890</v>
+        <v>201781289</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -787,39 +894,42 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
-        <v>102180046</v>
+        <v>102180028</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>859292357</v>
+        <v>777963099</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5">
-        <v>36450</v>
+        <v>36128</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>222302987</v>
+        <v>201202890</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>4000000</v>
@@ -830,119 +940,128 @@
       <c r="M7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
-        <v>102180118</v>
+        <v>102180046</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>333233518</v>
+        <v>859292357</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5">
-        <v>36491</v>
+        <v>36450</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>219092122</v>
+        <v>222302987</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K8">
         <v>4000000</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
-        <v>102180071</v>
+        <v>102180118</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>328264648</v>
+        <v>333233518</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5">
-        <v>36295</v>
+        <v>36491</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>221256526</v>
+        <v>219092122</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>4000000</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
-        <v>102180050</v>
+        <v>102180071</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>905061242</v>
+        <v>328264648</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>36259</v>
+        <v>36295</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>207892653</v>
+        <v>221256526</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K10">
         <v>4000000</v>
@@ -951,24 +1070,27 @@
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
-        <v>102180047</v>
+        <v>102180050</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>965040999</v>
+        <v>905061242</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5">
-        <v>36519</v>
+        <v>36259</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -977,54 +1099,57 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>221289762</v>
+        <v>207892653</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>4000000</v>
       </c>
       <c r="L11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
-        <v>102180090</v>
+        <v>102180047</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>989402047</v>
+        <v>965040999</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5">
-        <v>36394</v>
+        <v>36519</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>201491826</v>
+        <v>221289762</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>4000000</v>
@@ -1035,34 +1160,37 @@
       <c r="M12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
-        <v>102180230</v>
+        <v>102180090</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>337258703</v>
+        <v>989402047</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="5">
-        <v>36503</v>
+        <v>36394</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>221902901</v>
+        <v>201491826</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1074,118 +1202,127 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>102180230</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>337258703</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5">
+        <v>36503</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>221902901</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>4000000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="N14" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>102180234</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>395624014</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <v>36295</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>207181290</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>0.5</v>
       </c>
-      <c r="K14">
-        <v>4000000</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K15">
+        <v>4000000</v>
+      </c>
+      <c r="L15" t="s">
         <v>4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>102180067</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15">
-        <v>837316400</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="5">
-        <v>36523</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>221501660</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>4000000</v>
-      </c>
-      <c r="L15" t="s">
-        <v>10</v>
       </c>
       <c r="M15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
-        <v>102180077</v>
+        <v>102180067</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16">
-        <v>382694627</v>
+        <v>837316400</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="5">
-        <v>36519</v>
+        <v>36523</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>221461234</v>
+        <v>221501660</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1197,74 +1334,80 @@
         <v>10</v>
       </c>
       <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>102180077</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>382694627</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5">
+        <v>36519</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>221461234</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>4000000</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="N17" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
         <v>102180070</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>786662297</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>36187</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>221452567</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>4000000</v>
-      </c>
-      <c r="L17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>102180132</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18">
-        <v>388012232</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="5">
-        <v>36519</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>221782764</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>3</v>
@@ -1279,21 +1422,24 @@
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
-        <v>102180254</v>
+        <v>102180132</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
-        <v>945243973</v>
+        <v>388012232</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="5">
         <v>36519</v>
@@ -1305,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>201202322</v>
+        <v>221782764</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>3</v>
@@ -1317,24 +1463,27 @@
         <v>4000000</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
-        <v>102180074</v>
+        <v>102180254</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20">
-        <v>339905697</v>
+        <v>945243973</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="5">
         <v>36519</v>
@@ -1343,57 +1492,60 @@
         <v>13</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
+        <v>201202322</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>4000000</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>102180074</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>339905697</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="5">
+        <v>36519</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>201024567</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>4000000</v>
-      </c>
-      <c r="L20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>102180191</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21">
-        <v>987914956</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="5">
-        <v>36379</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>222341267</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="J21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>4000000</v>
@@ -1402,80 +1554,86 @@
         <v>10</v>
       </c>
       <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>102180191</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>987914956</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="5">
+        <v>36379</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>222341267</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>4000000</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="N22" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
         <v>102180222</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>905789073</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>36324</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>201203233</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>0.25</v>
-      </c>
-      <c r="K22">
-        <v>4000000</v>
-      </c>
-      <c r="L22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>102180015</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23">
-        <v>354799060</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="5">
-        <v>36295</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>229812182</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23">
-        <v>0.5</v>
       </c>
       <c r="K23">
         <v>4000000</v>
@@ -1484,62 +1642,68 @@
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
-        <v>102180124</v>
+        <v>102180015</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24">
-        <v>965037805</v>
+        <v>354799060</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="5">
-        <v>36519</v>
+        <v>36295</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>231293921</v>
+        <v>229812182</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K24">
         <v>4000000</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
-        <v>102180147</v>
+        <v>102180124</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25">
-        <v>365530241</v>
+        <v>965037805</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" s="5">
         <v>36519</v>
@@ -1551,22 +1715,69 @@
         <v>1</v>
       </c>
       <c r="H25">
+        <v>231293921</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>4000000</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>102180147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <v>365530241</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="5">
+        <v>36519</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>228763012</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>4000000</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>4000000</v>
+      </c>
+      <c r="L26" t="s">
         <v>10</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M26" t="s">
         <v>25</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
